--- a/medicine/Premiers secours et secourisme/Classe_Ob/Classe_Ob.xlsx
+++ b/medicine/Premiers secours et secourisme/Classe_Ob/Classe_Ob.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Classe Ob est le nom d'une classe de navire-hôpital de la marine russe.
@@ -512,7 +524,9 @@
           <t>Navires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette classe compte trois navires :
 Ob ;
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chacun dispose de 7 salles d'opération, de 100 lits d'hôpitaux et d'un héliport. Opéré par des équipages civils mais avec le personnel médical de la marine. Le navire tête de classe Ob, construit en 1980, a été vendu à la Chine en 2007.
 </t>
